--- a/JupiterParts.xlsx
+++ b/JupiterParts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12075" windowHeight="3480" tabRatio="726" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12075" windowHeight="3480" tabRatio="726" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:M34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f>IF(D3,C3,C3*0.9)</f>
+        <f t="shared" ref="E3:E33" si="0">IF(D3,C3,C3*0.9)</f>
         <v>0.9</v>
       </c>
       <c r="G3" s="1">
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <f>IF(D4,C4,C4*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G4" s="1">
@@ -644,7 +644,7 @@
         <v>36000000</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J33" si="0">_xlfn.CONCAT("{",TRUNC(G4),", ",H4,"}")</f>
+        <f t="shared" ref="J4:J33" si="1">_xlfn.CONCAT("{",TRUNC(G4),", ",H4,"}")</f>
         <v>{272423, 36000000}</v>
       </c>
       <c r="K4" t="s">
@@ -655,7 +655,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M33" si="1">IF(D4,"",", ")</f>
+        <f t="shared" ref="M4:M33" si="2">IF(D4,"",", ")</f>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <f>IF(D5,C5,C5*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G5" s="1">
@@ -683,7 +683,7 @@
         <v>36000000</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{242696, 36000000}</v>
       </c>
       <c r="K5" t="s">
@@ -694,7 +694,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <f>IF(D6,C6,C6*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G6" s="1">
@@ -722,7 +722,7 @@
         <v>36000000</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{229075, 36000000}</v>
       </c>
       <c r="K6" t="s">
@@ -733,7 +733,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -749,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>IF(D7,C7,C7*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G7" s="1">
@@ -761,7 +761,7 @@
         <v>36000000</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{242696, 36000000}</v>
       </c>
       <c r="K7" t="s">
@@ -772,7 +772,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <f>IF(D8,C8,C8*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G8" s="1">
@@ -800,7 +800,7 @@
         <v>36000000</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 36000000}</v>
       </c>
       <c r="K8" t="s">
@@ -811,7 +811,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <f>IF(D9,C9,C9*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G9" s="1">
@@ -839,7 +839,7 @@
         <v>36000000</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 36000000}</v>
       </c>
       <c r="K9" t="s">
@@ -850,7 +850,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f>IF(D10,C10,C10*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G10" s="1">
@@ -878,7 +878,7 @@
         <v>36000000</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 36000000}</v>
       </c>
       <c r="K10" t="s">
@@ -889,7 +889,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>IF(D11,C11,C11*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G11" s="1">
@@ -917,7 +917,7 @@
         <v>36000000</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{242696, 36000000}</v>
       </c>
       <c r="K11" t="s">
@@ -928,7 +928,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f>IF(D12,C12,C12*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G12" s="1">
@@ -956,7 +956,7 @@
         <v>36000000</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 36000000}</v>
       </c>
       <c r="K12" t="s">
@@ -967,7 +967,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <f>IF(D13,C13,C13*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G13" s="1">
@@ -995,7 +995,7 @@
         <v>36000000</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 36000000}</v>
       </c>
       <c r="K13" t="s">
@@ -1006,7 +1006,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>IF(D14,C14,C14*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G14" s="1">
@@ -1034,7 +1034,7 @@
         <v>36000000</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{305775, 36000000}</v>
       </c>
       <c r="K14" t="s">
@@ -1045,7 +1045,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <f>IF(D15,C15,C15*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G15" s="1">
@@ -1073,7 +1073,7 @@
         <v>36000000</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 36000000}</v>
       </c>
       <c r="K15" t="s">
@@ -1084,7 +1084,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <f>IF(D16,C16,C16*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G16" s="1">
@@ -1112,7 +1112,7 @@
         <v>36000000</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 36000000}</v>
       </c>
       <c r="K16" t="s">
@@ -1123,7 +1123,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <f>IF(D17,C17,C17*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G17" s="1">
@@ -1151,7 +1151,7 @@
         <v>36000000</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{242696, 36000000}</v>
       </c>
       <c r="K17" t="s">
@@ -1162,7 +1162,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
         <v>0.5</v>
       </c>
       <c r="E18">
-        <f>IF(D18,C18,C18*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G18" s="1">
@@ -1190,7 +1190,7 @@
         <v>18000000</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{229075, 18000000}</v>
       </c>
       <c r="K18" t="s">
@@ -1201,7 +1201,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
         <v>0.5</v>
       </c>
       <c r="E19">
-        <f>IF(D19,C19,C19*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G19" s="1">
@@ -1229,7 +1229,7 @@
         <v>18000000</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 18000000}</v>
       </c>
       <c r="K19" t="s">
@@ -1240,7 +1240,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f>IF(D20,C20,C20*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G20" s="1">
@@ -1268,7 +1268,7 @@
         <v>36000000</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 36000000}</v>
       </c>
       <c r="K20" t="s">
@@ -1279,7 +1279,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f>IF(D21,C21,C21*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
       <c r="G21" s="1">
@@ -1310,7 +1310,7 @@
         <v>13200000</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 13200000}</v>
       </c>
       <c r="K21" t="s">
@@ -1321,7 +1321,7 @@
         <v/>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <f>IF(D22,C22,C22*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
       <c r="G22" s="1">
@@ -1352,7 +1352,7 @@
         <v>13200000</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 13200000}</v>
       </c>
       <c r="K22" t="s">
@@ -1363,7 +1363,7 @@
         <v/>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <f>IF(D23,C23,C23*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
       <c r="G23" s="1">
@@ -1394,7 +1394,7 @@
         <v>13200000</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 13200000}</v>
       </c>
       <c r="K23" t="s">
@@ -1405,7 +1405,7 @@
         <v/>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <f>IF(D24,C24,C24*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G24" s="1">
@@ -1433,7 +1433,7 @@
         <v>36000000</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{229075, 36000000}</v>
       </c>
       <c r="K24" t="s">
@@ -1444,7 +1444,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <f>IF(D25,C25,C25*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
       <c r="G25" s="1">
@@ -1475,7 +1475,7 @@
         <v>13200000</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{242696, 13200000}</v>
       </c>
       <c r="K25" t="s">
@@ -1486,7 +1486,7 @@
         <v/>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f>IF(D26,C26,C26*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
       <c r="G26" s="1">
@@ -1517,7 +1517,7 @@
         <v>13200000</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{229075, 13200000}</v>
       </c>
       <c r="K26" t="s">
@@ -1528,7 +1528,7 @@
         <v/>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <f>IF(D27,C27,C27*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
       <c r="G27" s="1">
@@ -1559,7 +1559,7 @@
         <v>13200000</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{242696, 13200000}</v>
       </c>
       <c r="K27" t="s">
@@ -1570,7 +1570,7 @@
         <v/>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <f>IF(D28,C28,C28*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G28" s="1">
@@ -1598,7 +1598,7 @@
         <v>36000000</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 36000000}</v>
       </c>
       <c r="K28" t="s">
@@ -1609,7 +1609,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <f>IF(D29,C29,C29*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
       <c r="G29" s="1">
@@ -1640,7 +1640,7 @@
         <v>13200000</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 13200000}</v>
       </c>
       <c r="K29" t="s">
@@ -1651,7 +1651,7 @@
         <v/>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <f>IF(D30,C30,C30*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
       <c r="G30" s="1">
@@ -1682,7 +1682,7 @@
         <v>13200000</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 13200000}</v>
       </c>
       <c r="K30" t="s">
@@ -1693,7 +1693,7 @@
         <v/>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <f>IF(D31,C31,C31*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
       <c r="G31" s="1">
@@ -1724,7 +1724,7 @@
         <v>13200000</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 13200000}</v>
       </c>
       <c r="K31" t="s">
@@ -1735,7 +1735,7 @@
         <v/>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <f>IF(D32,C32,C32*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G32" s="1">
@@ -1763,7 +1763,7 @@
         <v>36000000</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 36000000}</v>
       </c>
       <c r="K32" t="s">
@@ -1774,7 +1774,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <f>IF(D33,C33,C33*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G33" s="1">
@@ -1802,7 +1802,7 @@
         <v>36000000</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{305775, 36000000}</v>
       </c>
       <c r="K33" t="s">
@@ -1813,7 +1813,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f>IF(D3,C3,C3*0.9)</f>
+        <f t="shared" ref="E3:E34" si="0">IF(D3,C3,C3*0.9)</f>
         <v>0.9</v>
       </c>
       <c r="G3" s="1">
@@ -1951,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <f>IF(D4,C4,C4*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G4" s="1">
@@ -1963,7 +1963,7 @@
         <v>80000000</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J34" si="0">_xlfn.CONCAT("{",TRUNC(G4),", ",H4,"}")</f>
+        <f t="shared" ref="J4:J34" si="1">_xlfn.CONCAT("{",TRUNC(G4),", ",H4,"}")</f>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K4" t="s">
@@ -1974,7 +1974,7 @@
         <v/>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M34" si="1">IF(D4,"",", ")</f>
+        <f t="shared" ref="M4:M34" si="2">IF(D4,"",", ")</f>
         <v/>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <f>IF(D5,C5,C5*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G5" s="1">
@@ -2002,7 +2002,7 @@
         <v>36000000</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{305775, 36000000}</v>
       </c>
       <c r="K5" t="s">
@@ -2013,7 +2013,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <f>IF(D6,C6,C6*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G6" s="1">
@@ -2044,7 +2044,7 @@
         <v>80000000</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K6" t="s">
@@ -2055,7 +2055,7 @@
         <v/>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>IF(D7,C7,C7*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G7" s="1">
@@ -2083,7 +2083,7 @@
         <v>36000000</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 36000000}</v>
       </c>
       <c r="K7" t="s">
@@ -2094,7 +2094,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <f>IF(D8,C8,C8*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G8" s="1">
@@ -2125,7 +2125,7 @@
         <v>80000000</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K8" t="s">
@@ -2136,7 +2136,7 @@
         <v/>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <f>IF(D9,C9,C9*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G9" s="1">
@@ -2164,7 +2164,7 @@
         <v>36000000</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{305775, 36000000}</v>
       </c>
       <c r="K9" t="s">
@@ -2175,7 +2175,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f>IF(D10,C10,C10*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G10" s="1">
@@ -2206,7 +2206,7 @@
         <v>80000000</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K10" t="s">
@@ -2217,7 +2217,7 @@
         <v/>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>IF(D11,C11,C11*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G11" s="1">
@@ -2245,7 +2245,7 @@
         <v>36000000</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 36000000}</v>
       </c>
       <c r="K11" t="s">
@@ -2256,7 +2256,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f>IF(D12,C12,C12*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G12" s="1">
@@ -2287,7 +2287,7 @@
         <v>80000000</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K12" t="s">
@@ -2298,7 +2298,7 @@
         <v/>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <f>IF(D13,C13,C13*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G13" s="1">
@@ -2326,7 +2326,7 @@
         <v>36000000</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{305775, 36000000}</v>
       </c>
       <c r="K13" t="s">
@@ -2337,7 +2337,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>IF(D14,C14,C14*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G14" s="1">
@@ -2368,7 +2368,7 @@
         <v>80000000</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K14" t="s">
@@ -2379,7 +2379,7 @@
         <v/>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <f>IF(D15,C15,C15*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G15" s="1">
@@ -2407,7 +2407,7 @@
         <v>36000000</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 36000000}</v>
       </c>
       <c r="K15" t="s">
@@ -2418,7 +2418,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <f>IF(D16,C16,C16*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G16" s="1">
@@ -2449,7 +2449,7 @@
         <v>80000000</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K16" t="s">
@@ -2460,7 +2460,7 @@
         <v/>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <f>IF(D17,C17,C17*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G17" s="1">
@@ -2488,7 +2488,7 @@
         <v>36000000</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{305775, 36000000}</v>
       </c>
       <c r="K17" t="s">
@@ -2499,7 +2499,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -2518,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>IF(D18,C18,C18*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G18" s="1">
@@ -2530,7 +2530,7 @@
         <v>80000000</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K18" t="s">
@@ -2541,7 +2541,7 @@
         <v/>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f>IF(D19,C19,C19*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G19" s="1">
@@ -2569,7 +2569,7 @@
         <v>36000000</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 36000000}</v>
       </c>
       <c r="K19" t="s">
@@ -2580,7 +2580,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f>IF(D20,C20,C20*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G20" s="1">
@@ -2611,7 +2611,7 @@
         <v>80000000</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K20" t="s">
@@ -2622,7 +2622,7 @@
         <v/>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f>IF(D21,C21,C21*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G21" s="1">
@@ -2650,7 +2650,7 @@
         <v>36000000</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{305775, 36000000}</v>
       </c>
       <c r="K21" t="s">
@@ -2661,7 +2661,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <f>IF(D22,C22,C22*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G22" s="1">
@@ -2692,7 +2692,7 @@
         <v>80000000</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K22" t="s">
@@ -2703,7 +2703,7 @@
         <v/>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <f>IF(D23,C23,C23*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G23" s="1">
@@ -2731,7 +2731,7 @@
         <v>36000000</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 36000000}</v>
       </c>
       <c r="K23" t="s">
@@ -2742,7 +2742,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <f>IF(D24,C24,C24*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G24" s="1">
@@ -2773,7 +2773,7 @@
         <v>80000000</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K24" t="s">
@@ -2784,7 +2784,7 @@
         <v/>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <f>IF(D25,C25,C25*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G25" s="1">
@@ -2812,7 +2812,7 @@
         <v>36000000</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{305775, 36000000}</v>
       </c>
       <c r="K25" t="s">
@@ -2823,7 +2823,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f>IF(D26,C26,C26*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G26" s="1">
@@ -2854,7 +2854,7 @@
         <v>80000000</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K26" t="s">
@@ -2865,7 +2865,7 @@
         <v/>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <f>IF(D27,C27,C27*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G27" s="1">
@@ -2893,7 +2893,7 @@
         <v>36000000</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 36000000}</v>
       </c>
       <c r="K27" t="s">
@@ -2904,7 +2904,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <f>IF(D28,C28,C28*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G28" s="1">
@@ -2935,7 +2935,7 @@
         <v>80000000</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K28" t="s">
@@ -2946,7 +2946,7 @@
         <v/>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <f>IF(D29,C29,C29*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G29" s="1">
@@ -2974,7 +2974,7 @@
         <v>36000000</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{305775, 36000000}</v>
       </c>
       <c r="K29" t="s">
@@ -2985,7 +2985,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -3004,7 +3004,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <f>IF(D30,C30,C30*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G30" s="1">
@@ -3016,7 +3016,7 @@
         <v>80000000</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K30" t="s">
@@ -3027,7 +3027,7 @@
         <v/>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3043,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <f>IF(D31,C31,C31*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G31" s="1">
@@ -3055,7 +3055,7 @@
         <v>36000000</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 36000000}</v>
       </c>
       <c r="K31" t="s">
@@ -3066,7 +3066,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -3085,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <f>IF(D32,C32,C32*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G32" s="1">
@@ -3097,7 +3097,7 @@
         <v>80000000</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K32" t="s">
@@ -3108,7 +3108,7 @@
         <v/>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <f>IF(D33,C33,C33*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G33" s="1">
@@ -3136,7 +3136,7 @@
         <v>36000000</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{305775, 36000000}</v>
       </c>
       <c r="K33" t="s">
@@ -3147,7 +3147,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <f>IF(D34,C34,C34*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G34" s="1">
@@ -3178,7 +3178,7 @@
         <v>80000000</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K34" t="s">
@@ -3189,7 +3189,7 @@
         <v/>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f>IF(D3,C3,C3*0.9)</f>
+        <f t="shared" ref="E3:E34" si="0">IF(D3,C3,C3*0.9)</f>
         <v>0.9</v>
       </c>
       <c r="G3" s="1">
@@ -3327,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <f>IF(D4,C4,C4*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G4" s="1">
@@ -3339,7 +3339,7 @@
         <v>80000000</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J34" si="0">_xlfn.CONCAT("{",TRUNC(G4),", ",H4,"}")</f>
+        <f t="shared" ref="J4:J34" si="1">_xlfn.CONCAT("{",TRUNC(G4),", ",H4,"}")</f>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K4" t="s">
@@ -3350,7 +3350,7 @@
         <v/>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M34" si="1">IF(D4,"",", ")</f>
+        <f t="shared" ref="M4:M34" si="2">IF(D4,"",", ")</f>
         <v/>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <f>IF(D5,C5,C5*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G5" s="1">
@@ -3378,7 +3378,7 @@
         <v>36000000</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 36000000}</v>
       </c>
       <c r="K5" t="s">
@@ -3389,7 +3389,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -3408,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <f>IF(D6,C6,C6*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G6" s="1">
@@ -3420,7 +3420,7 @@
         <v>80000000</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K6" t="s">
@@ -3431,7 +3431,7 @@
         <v/>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>IF(D7,C7,C7*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G7" s="1">
@@ -3459,7 +3459,7 @@
         <v>36000000</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 36000000}</v>
       </c>
       <c r="K7" t="s">
@@ -3470,7 +3470,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <f>IF(D8,C8,C8*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G8" s="1">
@@ -3501,7 +3501,7 @@
         <v>80000000</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K8" t="s">
@@ -3512,7 +3512,7 @@
         <v/>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <f>IF(D9,C9,C9*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G9" s="1">
@@ -3540,7 +3540,7 @@
         <v>36000000</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 36000000}</v>
       </c>
       <c r="K9" t="s">
@@ -3551,7 +3551,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f>IF(D10,C10,C10*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G10" s="1">
@@ -3582,7 +3582,7 @@
         <v>80000000</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K10" t="s">
@@ -3593,7 +3593,7 @@
         <v/>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>IF(D11,C11,C11*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G11" s="1">
@@ -3621,7 +3621,7 @@
         <v>36000000</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 36000000}</v>
       </c>
       <c r="K11" t="s">
@@ -3632,7 +3632,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f>IF(D12,C12,C12*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G12" s="1">
@@ -3663,7 +3663,7 @@
         <v>80000000</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K12" t="s">
@@ -3674,7 +3674,7 @@
         <v/>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <f>IF(D13,C13,C13*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G13" s="1">
@@ -3702,7 +3702,7 @@
         <v>36000000</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 36000000}</v>
       </c>
       <c r="K13" t="s">
@@ -3713,7 +3713,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -3732,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>IF(D14,C14,C14*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G14" s="1">
@@ -3744,7 +3744,7 @@
         <v>80000000</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K14" t="s">
@@ -3755,7 +3755,7 @@
         <v/>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <f>IF(D15,C15,C15*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G15" s="1">
@@ -3783,7 +3783,7 @@
         <v>36000000</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 36000000}</v>
       </c>
       <c r="K15" t="s">
@@ -3794,7 +3794,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <f>IF(D16,C16,C16*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G16" s="1">
@@ -3825,7 +3825,7 @@
         <v>80000000</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K16" t="s">
@@ -3836,7 +3836,7 @@
         <v/>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <f>IF(D17,C17,C17*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G17" s="1">
@@ -3864,7 +3864,7 @@
         <v>36000000</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 36000000}</v>
       </c>
       <c r="K17" t="s">
@@ -3875,7 +3875,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>IF(D18,C18,C18*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G18" s="1">
@@ -3906,7 +3906,7 @@
         <v>80000000</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K18" t="s">
@@ -3917,7 +3917,7 @@
         <v/>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f>IF(D19,C19,C19*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G19" s="1">
@@ -3945,7 +3945,7 @@
         <v>36000000</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 36000000}</v>
       </c>
       <c r="K19" t="s">
@@ -3956,7 +3956,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -3975,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f>IF(D20,C20,C20*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G20" s="1">
@@ -3987,7 +3987,7 @@
         <v>80000000</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K20" t="s">
@@ -3998,7 +3998,7 @@
         <v/>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f>IF(D21,C21,C21*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G21" s="1">
@@ -4026,7 +4026,7 @@
         <v>36000000</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 36000000}</v>
       </c>
       <c r="K21" t="s">
@@ -4037,7 +4037,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <f>IF(D22,C22,C22*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G22" s="1">
@@ -4068,7 +4068,7 @@
         <v>80000000</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K22" t="s">
@@ -4079,7 +4079,7 @@
         <v/>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <f>IF(D23,C23,C23*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G23" s="1">
@@ -4107,7 +4107,7 @@
         <v>36000000</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 36000000}</v>
       </c>
       <c r="K23" t="s">
@@ -4118,7 +4118,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <f>IF(D24,C24,C24*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G24" s="1">
@@ -4149,7 +4149,7 @@
         <v>80000000</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K24" t="s">
@@ -4160,7 +4160,7 @@
         <v/>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <f>IF(D25,C25,C25*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G25" s="1">
@@ -4188,7 +4188,7 @@
         <v>36000000</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 36000000}</v>
       </c>
       <c r="K25" t="s">
@@ -4199,7 +4199,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f>IF(D26,C26,C26*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G26" s="1">
@@ -4230,7 +4230,7 @@
         <v>80000000</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K26" t="s">
@@ -4241,7 +4241,7 @@
         <v/>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <f>IF(D27,C27,C27*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G27" s="1">
@@ -4269,7 +4269,7 @@
         <v>36000000</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 36000000}</v>
       </c>
       <c r="K27" t="s">
@@ -4280,7 +4280,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <f>IF(D28,C28,C28*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G28" s="1">
@@ -4311,7 +4311,7 @@
         <v>80000000</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K28" t="s">
@@ -4322,7 +4322,7 @@
         <v/>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4338,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <f>IF(D29,C29,C29*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G29" s="1">
@@ -4350,7 +4350,7 @@
         <v>36000000</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 36000000}</v>
       </c>
       <c r="K29" t="s">
@@ -4361,7 +4361,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <f>IF(D30,C30,C30*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G30" s="1">
@@ -4392,7 +4392,7 @@
         <v>80000000</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K30" t="s">
@@ -4403,7 +4403,7 @@
         <v/>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4419,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <f>IF(D31,C31,C31*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G31" s="1">
@@ -4431,7 +4431,7 @@
         <v>36000000</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 36000000}</v>
       </c>
       <c r="K31" t="s">
@@ -4442,7 +4442,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <f>IF(D32,C32,C32*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G32" s="1">
@@ -4473,7 +4473,7 @@
         <v>80000000</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K32" t="s">
@@ -4484,7 +4484,7 @@
         <v/>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4500,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <f>IF(D33,C33,C33*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G33" s="1">
@@ -4512,7 +4512,7 @@
         <v>36000000</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 36000000}</v>
       </c>
       <c r="K33" t="s">
@@ -4523,7 +4523,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -4542,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <f>IF(D34,C34,C34*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G34" s="1">
@@ -4554,7 +4554,7 @@
         <v>80000000</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K34" t="s">
@@ -4565,7 +4565,7 @@
         <v/>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f>IF(D3,C3,C3*0.9)</f>
+        <f t="shared" ref="E3:E34" si="0">IF(D3,C3,C3*0.9)</f>
         <v>0.9</v>
       </c>
       <c r="G3" s="1">
@@ -4703,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <f>IF(D4,C4,C4*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G4" s="1">
@@ -4715,7 +4715,7 @@
         <v>80000000</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J33" si="0">_xlfn.CONCAT("{",TRUNC(G4),", ",H4,"}")</f>
+        <f t="shared" ref="J4:J33" si="1">_xlfn.CONCAT("{",TRUNC(G4),", ",H4,"}")</f>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K4" t="s">
@@ -4726,7 +4726,7 @@
         <v/>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M33" si="1">IF(D4,"",", ")</f>
+        <f t="shared" ref="M4:M33" si="2">IF(D4,"",", ")</f>
         <v/>
       </c>
     </row>
@@ -4742,7 +4742,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <f>IF(D5,C5,C5*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G5" s="1">
@@ -4754,7 +4754,7 @@
         <v>36000000</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{229075, 36000000}</v>
       </c>
       <c r="K5" t="s">
@@ -4765,7 +4765,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -4784,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <f>IF(D6,C6,C6*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G6" s="1">
@@ -4796,7 +4796,7 @@
         <v>80000000</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K6" t="s">
@@ -4807,7 +4807,7 @@
         <v/>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>IF(D7,C7,C7*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G7" s="1">
@@ -4835,7 +4835,7 @@
         <v>36000000</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 36000000}</v>
       </c>
       <c r="K7" t="s">
@@ -4846,7 +4846,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <f>IF(D8,C8,C8*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G8" s="1">
@@ -4877,7 +4877,7 @@
         <v>80000000</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K8" t="s">
@@ -4888,7 +4888,7 @@
         <v/>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4904,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <f>IF(D9,C9,C9*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G9" s="1">
@@ -4916,7 +4916,7 @@
         <v>36000000</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{229075, 36000000}</v>
       </c>
       <c r="K9" t="s">
@@ -4927,7 +4927,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f>IF(D10,C10,C10*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G10" s="1">
@@ -4958,7 +4958,7 @@
         <v>80000000</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K10" t="s">
@@ -4969,7 +4969,7 @@
         <v/>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>IF(D11,C11,C11*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G11" s="1">
@@ -4997,7 +4997,7 @@
         <v>36000000</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 36000000}</v>
       </c>
       <c r="K11" t="s">
@@ -5008,7 +5008,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f>IF(D12,C12,C12*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G12" s="1">
@@ -5039,7 +5039,7 @@
         <v>80000000</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K12" t="s">
@@ -5050,7 +5050,7 @@
         <v/>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5066,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <f>IF(D13,C13,C13*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G13" s="1">
@@ -5078,7 +5078,7 @@
         <v>36000000</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{229075, 36000000}</v>
       </c>
       <c r="K13" t="s">
@@ -5089,7 +5089,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>IF(D14,C14,C14*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G14" s="1">
@@ -5120,7 +5120,7 @@
         <v>80000000</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K14" t="s">
@@ -5131,7 +5131,7 @@
         <v/>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <f>IF(D15,C15,C15*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G15" s="1">
@@ -5159,7 +5159,7 @@
         <v>36000000</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 36000000}</v>
       </c>
       <c r="K15" t="s">
@@ -5170,7 +5170,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <f>IF(D16,C16,C16*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G16" s="1">
@@ -5201,7 +5201,7 @@
         <v>80000000</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K16" t="s">
@@ -5212,7 +5212,7 @@
         <v/>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5228,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <f>IF(D17,C17,C17*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G17" s="1">
@@ -5240,7 +5240,7 @@
         <v>36000000</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{229075, 36000000}</v>
       </c>
       <c r="K17" t="s">
@@ -5251,7 +5251,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -5270,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>IF(D18,C18,C18*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G18" s="1">
@@ -5282,7 +5282,7 @@
         <v>80000000</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K18" t="s">
@@ -5293,7 +5293,7 @@
         <v/>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f>IF(D19,C19,C19*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G19" s="1">
@@ -5321,7 +5321,7 @@
         <v>36000000</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 36000000}</v>
       </c>
       <c r="K19" t="s">
@@ -5332,7 +5332,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f>IF(D20,C20,C20*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G20" s="1">
@@ -5363,7 +5363,7 @@
         <v>80000000</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K20" t="s">
@@ -5374,7 +5374,7 @@
         <v/>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f>IF(D21,C21,C21*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G21" s="1">
@@ -5402,7 +5402,7 @@
         <v>36000000</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{229075, 36000000}</v>
       </c>
       <c r="K21" t="s">
@@ -5413,7 +5413,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -5432,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <f>IF(D22,C22,C22*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G22" s="1">
@@ -5444,7 +5444,7 @@
         <v>80000000</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K22" t="s">
@@ -5455,7 +5455,7 @@
         <v/>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <f>IF(D23,C23,C23*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G23" s="1">
@@ -5483,7 +5483,7 @@
         <v>36000000</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 36000000}</v>
       </c>
       <c r="K23" t="s">
@@ -5494,7 +5494,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -5513,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <f>IF(D24,C24,C24*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G24" s="1">
@@ -5525,7 +5525,7 @@
         <v>80000000</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K24" t="s">
@@ -5536,7 +5536,7 @@
         <v/>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5552,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <f>IF(D25,C25,C25*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G25" s="1">
@@ -5564,7 +5564,7 @@
         <v>36000000</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{229075, 36000000}</v>
       </c>
       <c r="K25" t="s">
@@ -5575,7 +5575,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f>IF(D26,C26,C26*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G26" s="1">
@@ -5606,7 +5606,7 @@
         <v>80000000</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K26" t="s">
@@ -5617,7 +5617,7 @@
         <v/>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <f>IF(D27,C27,C27*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G27" s="1">
@@ -5645,7 +5645,7 @@
         <v>36000000</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 36000000}</v>
       </c>
       <c r="K27" t="s">
@@ -5656,7 +5656,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <f>IF(D28,C28,C28*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G28" s="1">
@@ -5687,7 +5687,7 @@
         <v>80000000</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K28" t="s">
@@ -5698,7 +5698,7 @@
         <v/>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5714,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <f>IF(D29,C29,C29*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G29" s="1">
@@ -5726,7 +5726,7 @@
         <v>36000000</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{229075, 36000000}</v>
       </c>
       <c r="K29" t="s">
@@ -5737,7 +5737,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -5756,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <f>IF(D30,C30,C30*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G30" s="1">
@@ -5768,7 +5768,7 @@
         <v>80000000</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K30" t="s">
@@ -5779,7 +5779,7 @@
         <v/>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <f>IF(D31,C31,C31*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G31" s="1">
@@ -5807,7 +5807,7 @@
         <v>36000000</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 36000000}</v>
       </c>
       <c r="K31" t="s">
@@ -5818,7 +5818,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <f>IF(D32,C32,C32*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G32" s="1">
@@ -5849,7 +5849,7 @@
         <v>80000000</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K32" t="s">
@@ -5860,7 +5860,7 @@
         <v/>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <f>IF(D33,C33,C33*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G33" s="1">
@@ -5888,7 +5888,7 @@
         <v>36000000</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{229075, 36000000}</v>
       </c>
       <c r="K33" t="s">
@@ -5899,7 +5899,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -5918,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <f>IF(D34,C34,C34*0.9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G34" s="1">
@@ -5930,7 +5930,7 @@
         <v>80000000</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" ref="J34" si="2">_xlfn.CONCAT("{",TRUNC(G34),", ",H34,"}")</f>
+        <f t="shared" ref="J34" si="3">_xlfn.CONCAT("{",TRUNC(G34),", ",H34,"}")</f>
         <v>{80000000, 80000000}</v>
       </c>
       <c r="K34" t="s">
@@ -5941,7 +5941,7 @@
         <v/>
       </c>
       <c r="M34" t="str">
-        <f t="shared" ref="M34" si="3">IF(D34,"",", ")</f>
+        <f t="shared" ref="M34" si="4">IF(D34,"",", ")</f>
         <v/>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f>IF(D3,C3,C3*0.9)</f>
+        <f t="shared" ref="E3:E34" si="0">IF(D3,C3,C3*0.9)</f>
         <v>1</v>
       </c>
       <c r="G3" s="1">
@@ -6079,7 +6079,7 @@
         <v>0.5</v>
       </c>
       <c r="E4">
-        <f>IF(D4,C4,C4*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G4" s="1">
@@ -6091,7 +6091,7 @@
         <v>18000000</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J34" si="0">_xlfn.CONCAT("{",TRUNC(G4),", ",H4,"}")</f>
+        <f t="shared" ref="J4:J34" si="1">_xlfn.CONCAT("{",TRUNC(G4),", ",H4,"}")</f>
         <v>{272423, 18000000}</v>
       </c>
       <c r="K4" t="s">
@@ -6102,7 +6102,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M34" si="1">IF(D4,"",", ")</f>
+        <f t="shared" ref="M4:M34" si="2">IF(D4,"",", ")</f>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6118,7 +6118,7 @@
         <v>0.5</v>
       </c>
       <c r="E5">
-        <f>IF(D5,C5,C5*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G5" s="1">
@@ -6130,7 +6130,7 @@
         <v>18000000</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 18000000}</v>
       </c>
       <c r="K5" t="s">
@@ -6141,7 +6141,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
         <v>0.5</v>
       </c>
       <c r="E6">
-        <f>IF(D6,C6,C6*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G6" s="1">
@@ -6169,7 +6169,7 @@
         <v>18000000</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{305775, 18000000}</v>
       </c>
       <c r="K6" t="s">
@@ -6180,7 +6180,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <f>IF(D7,C7,C7*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G7" s="1">
@@ -6208,7 +6208,7 @@
         <v>18000000</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{242696, 18000000}</v>
       </c>
       <c r="K7" t="s">
@@ -6219,7 +6219,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6235,7 +6235,7 @@
         <v>0.5</v>
       </c>
       <c r="E8">
-        <f>IF(D8,C8,C8*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G8" s="1">
@@ -6247,7 +6247,7 @@
         <v>18000000</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 18000000}</v>
       </c>
       <c r="K8" t="s">
@@ -6258,7 +6258,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6274,7 +6274,7 @@
         <v>0.5</v>
       </c>
       <c r="E9">
-        <f>IF(D9,C9,C9*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G9" s="1">
@@ -6286,7 +6286,7 @@
         <v>18000000</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 18000000}</v>
       </c>
       <c r="K9" t="s">
@@ -6297,7 +6297,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6313,7 +6313,7 @@
         <v>0.5</v>
       </c>
       <c r="E10">
-        <f>IF(D10,C10,C10*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G10" s="1">
@@ -6325,7 +6325,7 @@
         <v>18000000</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 18000000}</v>
       </c>
       <c r="K10" t="s">
@@ -6336,7 +6336,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
         <v>0.5</v>
       </c>
       <c r="E11">
-        <f>IF(D11,C11,C11*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G11" s="1">
@@ -6364,7 +6364,7 @@
         <v>18000000</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 18000000}</v>
       </c>
       <c r="K11" t="s">
@@ -6375,7 +6375,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
         <v>0.5</v>
       </c>
       <c r="E12">
-        <f>IF(D12,C12,C12*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G12" s="1">
@@ -6403,7 +6403,7 @@
         <v>18000000</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{305775, 18000000}</v>
       </c>
       <c r="K12" t="s">
@@ -6414,7 +6414,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6430,7 +6430,7 @@
         <v>0.5</v>
       </c>
       <c r="E13">
-        <f>IF(D13,C13,C13*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G13" s="1">
@@ -6442,7 +6442,7 @@
         <v>18000000</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{242696, 18000000}</v>
       </c>
       <c r="K13" t="s">
@@ -6453,7 +6453,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6469,7 +6469,7 @@
         <v>0.5</v>
       </c>
       <c r="E14">
-        <f>IF(D14,C14,C14*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G14" s="1">
@@ -6481,7 +6481,7 @@
         <v>18000000</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 18000000}</v>
       </c>
       <c r="K14" t="s">
@@ -6492,7 +6492,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6508,7 +6508,7 @@
         <v>0.5</v>
       </c>
       <c r="E15">
-        <f>IF(D15,C15,C15*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G15" s="1">
@@ -6520,7 +6520,7 @@
         <v>18000000</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 18000000}</v>
       </c>
       <c r="K15" t="s">
@@ -6531,7 +6531,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6547,7 +6547,7 @@
         <v>0.5</v>
       </c>
       <c r="E16">
-        <f>IF(D16,C16,C16*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G16" s="1">
@@ -6559,7 +6559,7 @@
         <v>18000000</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 18000000}</v>
       </c>
       <c r="K16" t="s">
@@ -6570,7 +6570,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6586,7 +6586,7 @@
         <v>0.5</v>
       </c>
       <c r="E17">
-        <f>IF(D17,C17,C17*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G17" s="1">
@@ -6598,7 +6598,7 @@
         <v>18000000</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 18000000}</v>
       </c>
       <c r="K17" t="s">
@@ -6609,7 +6609,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6625,7 +6625,7 @@
         <v>0.5</v>
       </c>
       <c r="E18">
-        <f>IF(D18,C18,C18*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G18" s="1">
@@ -6637,7 +6637,7 @@
         <v>18000000</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{305775, 18000000}</v>
       </c>
       <c r="K18" t="s">
@@ -6648,7 +6648,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6664,7 +6664,7 @@
         <v>0.5</v>
       </c>
       <c r="E19">
-        <f>IF(D19,C19,C19*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G19" s="1">
@@ -6676,7 +6676,7 @@
         <v>18000000</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{242696, 18000000}</v>
       </c>
       <c r="K19" t="s">
@@ -6687,7 +6687,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6703,7 +6703,7 @@
         <v>0.5</v>
       </c>
       <c r="E20">
-        <f>IF(D20,C20,C20*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G20" s="1">
@@ -6715,7 +6715,7 @@
         <v>18000000</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 18000000}</v>
       </c>
       <c r="K20" t="s">
@@ -6726,7 +6726,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6742,7 +6742,7 @@
         <v>0.5</v>
       </c>
       <c r="E21">
-        <f>IF(D21,C21,C21*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G21" s="1">
@@ -6754,7 +6754,7 @@
         <v>18000000</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 18000000}</v>
       </c>
       <c r="K21" t="s">
@@ -6765,7 +6765,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6781,7 +6781,7 @@
         <v>0.5</v>
       </c>
       <c r="E22">
-        <f>IF(D22,C22,C22*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G22" s="1">
@@ -6793,7 +6793,7 @@
         <v>18000000</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 18000000}</v>
       </c>
       <c r="K22" t="s">
@@ -6804,7 +6804,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6820,7 +6820,7 @@
         <v>0.5</v>
       </c>
       <c r="E23">
-        <f>IF(D23,C23,C23*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G23" s="1">
@@ -6832,7 +6832,7 @@
         <v>18000000</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 18000000}</v>
       </c>
       <c r="K23" t="s">
@@ -6843,7 +6843,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
         <v>0.5</v>
       </c>
       <c r="E24">
-        <f>IF(D24,C24,C24*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G24" s="1">
@@ -6871,7 +6871,7 @@
         <v>18000000</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{305775, 18000000}</v>
       </c>
       <c r="K24" t="s">
@@ -6882,7 +6882,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6898,7 +6898,7 @@
         <v>0.5</v>
       </c>
       <c r="E25">
-        <f>IF(D25,C25,C25*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G25" s="1">
@@ -6910,7 +6910,7 @@
         <v>18000000</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{242696, 18000000}</v>
       </c>
       <c r="K25" t="s">
@@ -6921,7 +6921,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6937,7 +6937,7 @@
         <v>0.5</v>
       </c>
       <c r="E26">
-        <f>IF(D26,C26,C26*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G26" s="1">
@@ -6949,7 +6949,7 @@
         <v>18000000</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 18000000}</v>
       </c>
       <c r="K26" t="s">
@@ -6960,7 +6960,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
         <v>0.5</v>
       </c>
       <c r="E27">
-        <f>IF(D27,C27,C27*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G27" s="1">
@@ -6988,7 +6988,7 @@
         <v>18000000</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 18000000}</v>
       </c>
       <c r="K27" t="s">
@@ -6999,7 +6999,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7015,7 +7015,7 @@
         <v>0.5</v>
       </c>
       <c r="E28">
-        <f>IF(D28,C28,C28*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G28" s="1">
@@ -7027,7 +7027,7 @@
         <v>18000000</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 18000000}</v>
       </c>
       <c r="K28" t="s">
@@ -7038,7 +7038,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7054,7 +7054,7 @@
         <v>0.5</v>
       </c>
       <c r="E29">
-        <f>IF(D29,C29,C29*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G29" s="1">
@@ -7066,7 +7066,7 @@
         <v>18000000</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 18000000}</v>
       </c>
       <c r="K29" t="s">
@@ -7077,7 +7077,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7093,7 +7093,7 @@
         <v>0.5</v>
       </c>
       <c r="E30">
-        <f>IF(D30,C30,C30*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G30" s="1">
@@ -7105,7 +7105,7 @@
         <v>18000000</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{305775, 18000000}</v>
       </c>
       <c r="K30" t="s">
@@ -7116,7 +7116,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7132,7 +7132,7 @@
         <v>0.5</v>
       </c>
       <c r="E31">
-        <f>IF(D31,C31,C31*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G31" s="1">
@@ -7144,7 +7144,7 @@
         <v>18000000</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{242696, 18000000}</v>
       </c>
       <c r="K31" t="s">
@@ -7155,7 +7155,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7171,7 +7171,7 @@
         <v>0.5</v>
       </c>
       <c r="E32">
-        <f>IF(D32,C32,C32*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G32" s="1">
@@ -7183,7 +7183,7 @@
         <v>18000000</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 18000000}</v>
       </c>
       <c r="K32" t="s">
@@ -7194,7 +7194,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7210,7 +7210,7 @@
         <v>0.5</v>
       </c>
       <c r="E33">
-        <f>IF(D33,C33,C33*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G33" s="1">
@@ -7222,7 +7222,7 @@
         <v>18000000</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 18000000}</v>
       </c>
       <c r="K33" t="s">
@@ -7233,7 +7233,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7249,7 +7249,7 @@
         <v>0.5</v>
       </c>
       <c r="E34">
-        <f>IF(D34,C34,C34*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G34" s="1">
@@ -7261,7 +7261,7 @@
         <v>18000000</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{272423, 18000000}</v>
       </c>
       <c r="K34" t="s">
@@ -7272,7 +7272,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7288,7 +7288,7 @@
         <v>0.5</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35:E56" si="2">IF(D35,C35,C35*0.9)</f>
+        <f t="shared" ref="E35:E55" si="3">IF(D35,C35,C35*0.9)</f>
         <v>0.45</v>
       </c>
       <c r="G35" s="1">
@@ -7300,7 +7300,7 @@
         <v>18000000</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" ref="J35:J56" si="3">_xlfn.CONCAT("{",TRUNC(G35),", ",H35,"}")</f>
+        <f t="shared" ref="J35:J55" si="4">_xlfn.CONCAT("{",TRUNC(G35),", ",H35,"}")</f>
         <v>{204081, 18000000}</v>
       </c>
       <c r="K35" t="s">
@@ -7311,7 +7311,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" ref="M35:M56" si="4">IF(D35,"",", ")</f>
+        <f t="shared" ref="M35:M54" si="5">IF(D35,"",", ")</f>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7327,7 +7327,7 @@
         <v>0.5</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G36" s="1">
@@ -7339,7 +7339,7 @@
         <v>18000000</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{305775, 18000000}</v>
       </c>
       <c r="K36" t="s">
@@ -7350,7 +7350,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
         <v>0.5</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G37" s="1">
@@ -7378,7 +7378,7 @@
         <v>18000000</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{242696, 18000000}</v>
       </c>
       <c r="K37" t="s">
@@ -7389,7 +7389,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7405,7 +7405,7 @@
         <v>0.5</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G38" s="1">
@@ -7417,7 +7417,7 @@
         <v>18000000</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{181818, 18000000}</v>
       </c>
       <c r="K38" t="s">
@@ -7428,7 +7428,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7444,7 +7444,7 @@
         <v>0.5</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G39" s="1">
@@ -7456,7 +7456,7 @@
         <v>18000000</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{272423, 18000000}</v>
       </c>
       <c r="K39" t="s">
@@ -7467,7 +7467,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7483,7 +7483,7 @@
         <v>0.5</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G40" s="1">
@@ -7495,7 +7495,7 @@
         <v>18000000</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{272423, 18000000}</v>
       </c>
       <c r="K40" t="s">
@@ -7506,7 +7506,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7522,7 +7522,7 @@
         <v>0.5</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G41" s="1">
@@ -7534,7 +7534,7 @@
         <v>18000000</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{204081, 18000000}</v>
       </c>
       <c r="K41" t="s">
@@ -7545,7 +7545,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
         <v>0.5</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G42" s="1">
@@ -7573,7 +7573,7 @@
         <v>18000000</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{305775, 18000000}</v>
       </c>
       <c r="K42" t="s">
@@ -7584,7 +7584,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7600,7 +7600,7 @@
         <v>0.5</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G43" s="1">
@@ -7612,7 +7612,7 @@
         <v>18000000</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{242696, 18000000}</v>
       </c>
       <c r="K43" t="s">
@@ -7623,7 +7623,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7639,7 +7639,7 @@
         <v>0.5</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G44" s="1">
@@ -7651,7 +7651,7 @@
         <v>18000000</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{181818, 18000000}</v>
       </c>
       <c r="K44" t="s">
@@ -7662,7 +7662,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7678,7 +7678,7 @@
         <v>0.5</v>
       </c>
       <c r="E45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G45" s="1">
@@ -7690,7 +7690,7 @@
         <v>18000000</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{272423, 18000000}</v>
       </c>
       <c r="K45" t="s">
@@ -7701,7 +7701,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7717,7 +7717,7 @@
         <v>0.5</v>
       </c>
       <c r="E46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G46" s="1">
@@ -7729,7 +7729,7 @@
         <v>18000000</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{272423, 18000000}</v>
       </c>
       <c r="K46" t="s">
@@ -7740,7 +7740,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7756,7 +7756,7 @@
         <v>0.5</v>
       </c>
       <c r="E47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G47" s="1">
@@ -7768,7 +7768,7 @@
         <v>18000000</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{204081, 18000000}</v>
       </c>
       <c r="K47" t="s">
@@ -7779,7 +7779,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7795,7 +7795,7 @@
         <v>0.5</v>
       </c>
       <c r="E48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G48" s="1">
@@ -7807,7 +7807,7 @@
         <v>18000000</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{305775, 18000000}</v>
       </c>
       <c r="K48" t="s">
@@ -7818,7 +7818,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7834,7 +7834,7 @@
         <v>0.5</v>
       </c>
       <c r="E49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G49" s="1">
@@ -7846,7 +7846,7 @@
         <v>18000000</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{242696, 18000000}</v>
       </c>
       <c r="K49" t="s">
@@ -7857,7 +7857,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7873,7 +7873,7 @@
         <v>0.5</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G50" s="1">
@@ -7885,7 +7885,7 @@
         <v>18000000</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{181818, 18000000}</v>
       </c>
       <c r="K50" t="s">
@@ -7896,7 +7896,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7912,7 +7912,7 @@
         <v>0.5</v>
       </c>
       <c r="E51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G51" s="1">
@@ -7924,7 +7924,7 @@
         <v>18000000</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{272423, 18000000}</v>
       </c>
       <c r="K51" t="s">
@@ -7935,7 +7935,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
         <v>0.5</v>
       </c>
       <c r="E52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G52" s="1">
@@ -7963,7 +7963,7 @@
         <v>18000000</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{272423, 18000000}</v>
       </c>
       <c r="K52" t="s">
@@ -7974,7 +7974,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -7990,7 +7990,7 @@
         <v>0.5</v>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G53" s="1">
@@ -8002,7 +8002,7 @@
         <v>18000000</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{204081, 18000000}</v>
       </c>
       <c r="K53" t="s">
@@ -8013,7 +8013,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -8029,7 +8029,7 @@
         <v>0.5</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G54" s="1">
@@ -8041,7 +8041,7 @@
         <v>18000000</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{305775, 18000000}</v>
       </c>
       <c r="K54" t="s">
@@ -8052,7 +8052,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -8068,7 +8068,7 @@
         <v>0.5</v>
       </c>
       <c r="E55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="G55" s="1">
@@ -8080,7 +8080,7 @@
         <v>18000000</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{242696, 18000000}</v>
       </c>
       <c r="K55" t="s">
@@ -8109,7 +8109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f>IF(D3,C3,C3*0.9)</f>
+        <f t="shared" ref="E3:E34" si="0">IF(D3,C3,C3*0.9)</f>
         <v>1</v>
       </c>
       <c r="G3" s="1">
@@ -8226,7 +8226,7 @@
         <v>0.5</v>
       </c>
       <c r="E4">
-        <f>IF(D4,C4,C4*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G4" s="1">
@@ -8238,7 +8238,7 @@
         <v>18000000</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J34" si="0">_xlfn.CONCAT("{",TRUNC(G4),", ",H4,"}")</f>
+        <f t="shared" ref="J4:J34" si="1">_xlfn.CONCAT("{",TRUNC(G4),", ",H4,"}")</f>
         <v>{181818, 18000000}</v>
       </c>
       <c r="K4" t="s">
@@ -8249,7 +8249,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M34" si="1">IF(D4,"",", ")</f>
+        <f t="shared" ref="M4:M33" si="2">IF(D4,"",", ")</f>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -8265,7 +8265,7 @@
         <v>0.5</v>
       </c>
       <c r="E5">
-        <f>IF(D5,C5,C5*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G5" s="1">
@@ -8277,7 +8277,7 @@
         <v>18000000</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 18000000}</v>
       </c>
       <c r="K5" t="s">
@@ -8288,7 +8288,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -8307,7 +8307,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <f>IF(D6,C6,C6*0.9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6" s="1">
@@ -8319,7 +8319,7 @@
         <v>40000000</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 40000000}</v>
       </c>
       <c r="K6" t="s">
@@ -8330,7 +8330,7 @@
         <v/>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8346,7 +8346,7 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <f>IF(D7,C7,C7*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G7" s="1">
@@ -8358,7 +8358,7 @@
         <v>18000000</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 18000000}</v>
       </c>
       <c r="K7" t="s">
@@ -8369,7 +8369,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -8385,7 +8385,7 @@
         <v>0.5</v>
       </c>
       <c r="E8">
-        <f>IF(D8,C8,C8*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G8" s="1">
@@ -8397,7 +8397,7 @@
         <v>18000000</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 18000000}</v>
       </c>
       <c r="K8" t="s">
@@ -8408,7 +8408,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -8424,7 +8424,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <f>IF(D9,C9,C9*0.9)</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
       <c r="G9" s="1">
@@ -8436,7 +8436,7 @@
         <v>72000000</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 72000000}</v>
       </c>
       <c r="K9" t="s">
@@ -8447,7 +8447,7 @@
         <v>{80000000, 8000000}</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -8466,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f>IF(D10,C10,C10*0.9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G10" s="1">
@@ -8478,7 +8478,7 @@
         <v>40000000</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 40000000}</v>
       </c>
       <c r="K10" t="s">
@@ -8489,7 +8489,7 @@
         <v/>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8508,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>IF(D11,C11,C11*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
       <c r="G11" s="1">
@@ -8520,7 +8520,7 @@
         <v>13200000</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 13200000}</v>
       </c>
       <c r="K11" t="s">
@@ -8531,7 +8531,7 @@
         <v/>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8550,7 +8550,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f>IF(D12,C12,C12*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
       <c r="G12" s="1">
@@ -8562,7 +8562,7 @@
         <v>13200000</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 13200000}</v>
       </c>
       <c r="K12" t="s">
@@ -8573,7 +8573,7 @@
         <v/>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8589,7 +8589,7 @@
         <v>0.33</v>
       </c>
       <c r="E13">
-        <f>IF(D13,C13,C13*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.29700000000000004</v>
       </c>
       <c r="G13" s="1">
@@ -8601,7 +8601,7 @@
         <v>11880000.000000002</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 11880000}</v>
       </c>
       <c r="K13" t="s">
@@ -8612,7 +8612,7 @@
         <v>{80000000, 1320000}</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -8628,7 +8628,7 @@
         <v>0.5</v>
       </c>
       <c r="E14">
-        <f>IF(D14,C14,C14*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G14" s="1">
@@ -8640,7 +8640,7 @@
         <v>18000000</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 18000000}</v>
       </c>
       <c r="K14" t="s">
@@ -8651,7 +8651,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -8667,7 +8667,7 @@
         <v>0.5</v>
       </c>
       <c r="E15">
-        <f>IF(D15,C15,C15*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G15" s="1">
@@ -8679,7 +8679,7 @@
         <v>18000000</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 18000000}</v>
       </c>
       <c r="K15" t="s">
@@ -8690,7 +8690,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -8706,7 +8706,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <f>IF(D16,C16,C16*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G16" s="1">
@@ -8718,7 +8718,7 @@
         <v>36000000</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{305775, 36000000}</v>
       </c>
       <c r="K16" t="s">
@@ -8729,7 +8729,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -8745,7 +8745,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <f>IF(D17,C17,C17*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G17" s="1">
@@ -8757,7 +8757,7 @@
         <v>36000000</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 36000000}</v>
       </c>
       <c r="K17" t="s">
@@ -8768,7 +8768,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -8784,7 +8784,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>IF(D18,C18,C18*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G18" s="1">
@@ -8796,7 +8796,7 @@
         <v>36000000</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 36000000}</v>
       </c>
       <c r="K18" t="s">
@@ -8807,7 +8807,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -8826,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f>IF(D19,C19,C19*0.9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G19" s="1">
@@ -8838,7 +8838,7 @@
         <v>40000000</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 40000000}</v>
       </c>
       <c r="K19" t="s">
@@ -8849,7 +8849,7 @@
         <v/>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8865,7 +8865,7 @@
         <v>0.5</v>
       </c>
       <c r="E20">
-        <f>IF(D20,C20,C20*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G20" s="1">
@@ -8877,7 +8877,7 @@
         <v>18000000</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 18000000}</v>
       </c>
       <c r="K20" t="s">
@@ -8888,7 +8888,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -8904,7 +8904,7 @@
         <v>0.5</v>
       </c>
       <c r="E21">
-        <f>IF(D21,C21,C21*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G21" s="1">
@@ -8916,7 +8916,7 @@
         <v>18000000</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 18000000}</v>
       </c>
       <c r="K21" t="s">
@@ -8927,7 +8927,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -8946,7 +8946,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <f>IF(D22,C22,C22*0.9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G22" s="1">
@@ -8958,7 +8958,7 @@
         <v>40000000</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 40000000}</v>
       </c>
       <c r="K22" t="s">
@@ -8969,7 +8969,7 @@
         <v/>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
         <v>0.5</v>
       </c>
       <c r="E23">
-        <f>IF(D23,C23,C23*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G23" s="1">
@@ -8997,7 +8997,7 @@
         <v>18000000</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 18000000}</v>
       </c>
       <c r="K23" t="s">
@@ -9008,7 +9008,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -9024,7 +9024,7 @@
         <v>0.5</v>
       </c>
       <c r="E24">
-        <f>IF(D24,C24,C24*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G24" s="1">
@@ -9036,7 +9036,7 @@
         <v>18000000</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 18000000}</v>
       </c>
       <c r="K24" t="s">
@@ -9047,7 +9047,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -9063,7 +9063,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <f>IF(D25,C25,C25*0.9)</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
       <c r="G25" s="1">
@@ -9075,7 +9075,7 @@
         <v>72000000</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 72000000}</v>
       </c>
       <c r="K25" t="s">
@@ -9086,7 +9086,7 @@
         <v>{80000000, 8000000}</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -9105,7 +9105,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f>IF(D26,C26,C26*0.9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G26" s="1">
@@ -9117,7 +9117,7 @@
         <v>40000000</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{80000000, 40000000}</v>
       </c>
       <c r="K26" t="s">
@@ -9128,7 +9128,7 @@
         <v/>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9147,7 +9147,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <f>IF(D27,C27,C27*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
       <c r="G27" s="1">
@@ -9159,7 +9159,7 @@
         <v>13200000</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 13200000}</v>
       </c>
       <c r="K27" t="s">
@@ -9170,7 +9170,7 @@
         <v/>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9189,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <f>IF(D28,C28,C28*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
       <c r="G28" s="1">
@@ -9201,7 +9201,7 @@
         <v>13200000</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 13200000}</v>
       </c>
       <c r="K28" t="s">
@@ -9212,7 +9212,7 @@
         <v/>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9228,7 +9228,7 @@
         <v>0.33</v>
       </c>
       <c r="E29">
-        <f>IF(D29,C29,C29*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.29700000000000004</v>
       </c>
       <c r="G29" s="1">
@@ -9240,7 +9240,7 @@
         <v>11880000.000000002</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{204081, 11880000}</v>
       </c>
       <c r="K29" t="s">
@@ -9251,7 +9251,7 @@
         <v>{80000000, 1320000}</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -9267,7 +9267,7 @@
         <v>0.5</v>
       </c>
       <c r="E30">
-        <f>IF(D30,C30,C30*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G30" s="1">
@@ -9279,7 +9279,7 @@
         <v>18000000</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 18000000}</v>
       </c>
       <c r="K30" t="s">
@@ -9290,7 +9290,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -9306,7 +9306,7 @@
         <v>0.5</v>
       </c>
       <c r="E31">
-        <f>IF(D31,C31,C31*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="G31" s="1">
@@ -9318,7 +9318,7 @@
         <v>18000000</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 18000000}</v>
       </c>
       <c r="K31" t="s">
@@ -9329,7 +9329,7 @@
         <v>{80000000, 2000000}</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -9345,7 +9345,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <f>IF(D32,C32,C32*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G32" s="1">
@@ -9357,7 +9357,7 @@
         <v>36000000</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{305775, 36000000}</v>
       </c>
       <c r="K32" t="s">
@@ -9368,7 +9368,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -9384,7 +9384,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <f>IF(D33,C33,C33*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G33" s="1">
@@ -9396,7 +9396,7 @@
         <v>36000000</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{161982, 36000000}</v>
       </c>
       <c r="K33" t="s">
@@ -9407,7 +9407,7 @@
         <v>{80000000, 4000000}</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">, </v>
       </c>
     </row>
@@ -9423,7 +9423,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <f>IF(D34,C34,C34*0.9)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="G34" s="1">
@@ -9435,7 +9435,7 @@
         <v>36000000</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{181818, 36000000}</v>
       </c>
       <c r="K34" t="s">
@@ -9464,8 +9464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
